--- a/Strategi Spreadsheet.xlsx
+++ b/Strategi Spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rizky\OneDrive\Dokumen\MICROCONTROLLER\LINE FOLLOWER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08547C23-B953-4708-A892-611F9DF88822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C72C0CEF-E1E6-47AE-9291-0D248ED44709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" xr2:uid="{3F95F94B-F1CB-48F5-ADD1-A026F8F9FFF5}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="44">
   <si>
     <t>Sensor 1</t>
   </si>
@@ -87,12 +87,6 @@
     <t xml:space="preserve">lurus dikit </t>
   </si>
   <si>
-    <t>kanan tajam</t>
-  </si>
-  <si>
-    <t>kiri tajam</t>
-  </si>
-  <si>
     <t>serong kanan</t>
   </si>
   <si>
@@ -112,6 +106,60 @@
   </si>
   <si>
     <t>Kanan2</t>
+  </si>
+  <si>
+    <t>Lurus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kanan </t>
+  </si>
+  <si>
+    <t>Kiri</t>
+  </si>
+  <si>
+    <t>Berhenti</t>
+  </si>
+  <si>
+    <t>mundur</t>
+  </si>
+  <si>
+    <t>AKSI</t>
+  </si>
+  <si>
+    <t>Kecepatan Rendah 500</t>
+  </si>
+  <si>
+    <t>Mode 1 /6</t>
+  </si>
+  <si>
+    <t>Mode 2 /8</t>
+  </si>
+  <si>
+    <t>Mode 3 /10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kecepatan Tinggi </t>
+  </si>
+  <si>
+    <t>lurus dikit</t>
+  </si>
+  <si>
+    <t>speedT</t>
+  </si>
+  <si>
+    <t>Orientation</t>
+  </si>
+  <si>
+    <t>kanan</t>
+  </si>
+  <si>
+    <t>speedR</t>
+  </si>
+  <si>
+    <t>kiri</t>
+  </si>
+  <si>
+    <t>speedT = Speed Tinggi = 1000 | speedR = Speed Rendah = 500</t>
   </si>
 </sst>
 </file>
@@ -157,7 +205,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -200,8 +248,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -242,28 +308,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -272,10 +367,10 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -284,19 +379,58 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -615,1235 +749,1331 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P67"/>
+  <dimension ref="A1:W67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="17" max="17" width="20.85546875" customWidth="1"/>
+    <col min="18" max="18" width="11.28515625" customWidth="1"/>
+    <col min="19" max="19" width="12.42578125" customWidth="1"/>
+    <col min="20" max="20" width="11.85546875" customWidth="1"/>
+    <col min="21" max="21" width="14" customWidth="1"/>
+    <col min="22" max="22" width="15" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13" t="s">
+      <c r="H1" s="12"/>
+      <c r="I1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="13"/>
+      <c r="J1" s="12"/>
       <c r="K1" s="14" t="s">
         <v>13</v>
       </c>
       <c r="L1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="R1" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15">
+        <v>1000</v>
+      </c>
+      <c r="U1" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="V1" s="18"/>
+      <c r="W1" s="15">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" s="9"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
       <c r="K2" s="14"/>
       <c r="L2" s="14"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="7" t="s">
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="15"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
+      <c r="B3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="15"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="4">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4">
-        <v>0</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
-      <c r="I4" s="3">
-        <v>0</v>
-      </c>
-      <c r="J4" s="3">
-        <v>0</v>
-      </c>
-      <c r="K4" s="11">
-        <v>0</v>
-      </c>
-      <c r="L4" s="12">
-        <v>0</v>
-      </c>
-      <c r="M4" s="6" t="s">
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="7">
+        <v>0</v>
+      </c>
+      <c r="L4" s="8">
+        <v>0</v>
+      </c>
+      <c r="M4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="R4" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="S4" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="T4" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="U4" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="V4" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="W4" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="4">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4">
-        <v>1</v>
-      </c>
-      <c r="D5" s="4">
-        <v>1</v>
-      </c>
-      <c r="E5" s="4">
-        <v>1</v>
-      </c>
-      <c r="F5" s="4">
-        <v>1</v>
-      </c>
-      <c r="G5" s="3">
-        <v>1</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0</v>
-      </c>
-      <c r="I5" s="3">
-        <v>1</v>
-      </c>
-      <c r="J5" s="3">
-        <v>0</v>
-      </c>
-      <c r="K5" s="11">
-        <v>95</v>
-      </c>
-      <c r="L5" s="12">
-        <v>95</v>
-      </c>
-      <c r="M5" s="6" t="s">
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5" s="23"/>
+      <c r="M5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="R5" s="19">
+        <f>T1/6</f>
+        <v>166.66666666666666</v>
+      </c>
+      <c r="S5" s="20">
+        <f>T1/8</f>
+        <v>125</v>
+      </c>
+      <c r="T5" s="21">
+        <f>T1/10</f>
+        <v>100</v>
+      </c>
+      <c r="U5" s="19">
+        <f>W1/6</f>
+        <v>83.333333333333329</v>
+      </c>
+      <c r="V5" s="20">
+        <f>W1/8</f>
+        <v>62.5</v>
+      </c>
+      <c r="W5" s="21">
+        <f>W1/10</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6" s="4">
-        <v>1</v>
-      </c>
-      <c r="C6" s="4">
-        <v>1</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4">
-        <v>1</v>
-      </c>
-      <c r="F6" s="4">
-        <v>1</v>
-      </c>
-      <c r="G6" s="3">
-        <v>1</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6" s="3">
-        <v>1</v>
-      </c>
-      <c r="J6" s="3">
-        <v>0</v>
-      </c>
-      <c r="K6" s="11">
-        <v>150</v>
-      </c>
-      <c r="L6" s="12">
-        <v>150</v>
-      </c>
-      <c r="M6" s="6" t="s">
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M6" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B7" s="4">
-        <v>1</v>
-      </c>
-      <c r="C7" s="4">
-        <v>1</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3">
-        <v>1</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3">
-        <v>0</v>
-      </c>
-      <c r="J7" s="3">
-        <v>1</v>
-      </c>
-      <c r="K7" s="11">
-        <v>150</v>
-      </c>
-      <c r="L7" s="12">
-        <v>150</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="M7" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="B8" s="4">
-        <v>0</v>
-      </c>
-      <c r="C8" s="4">
-        <v>0</v>
-      </c>
-      <c r="D8" s="4">
-        <v>0</v>
-      </c>
-      <c r="E8" s="4">
-        <v>1</v>
-      </c>
-      <c r="F8" s="4">
-        <v>1</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>1</v>
-      </c>
-      <c r="I8" s="3">
-        <v>1</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8" s="11">
-        <v>150</v>
-      </c>
-      <c r="L8" s="12">
-        <v>150</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M8" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6</v>
       </c>
-      <c r="B9" s="4">
-        <v>1</v>
-      </c>
-      <c r="C9" s="4">
-        <v>1</v>
-      </c>
-      <c r="D9" s="4">
-        <v>1</v>
-      </c>
-      <c r="E9" s="4">
-        <v>0</v>
-      </c>
-      <c r="F9" s="4">
-        <v>1</v>
-      </c>
-      <c r="G9" s="3">
-        <v>1</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3">
-        <v>1</v>
-      </c>
-      <c r="K9" s="11">
-        <v>150</v>
-      </c>
-      <c r="L9" s="12">
-        <v>100</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L9" s="8">
+        <v>0</v>
+      </c>
+      <c r="M9" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>7</v>
       </c>
-      <c r="B10" s="4">
-        <v>1</v>
-      </c>
-      <c r="C10" s="4">
-        <v>0</v>
-      </c>
-      <c r="D10" s="4">
-        <v>1</v>
-      </c>
-      <c r="E10" s="4">
-        <v>1</v>
-      </c>
-      <c r="F10" s="4">
-        <v>1</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3">
-        <v>1</v>
-      </c>
-      <c r="I10" s="3">
-        <v>1</v>
-      </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
-      <c r="K10" s="11">
-        <v>100</v>
-      </c>
-      <c r="L10" s="12">
-        <v>150</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="7">
+        <v>0</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="M10" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>8</v>
       </c>
-      <c r="B11" s="4">
-        <v>1</v>
-      </c>
-      <c r="C11" s="4">
-        <v>1</v>
-      </c>
-      <c r="D11" s="4">
-        <v>1</v>
-      </c>
-      <c r="E11" s="4">
-        <v>0</v>
-      </c>
-      <c r="F11" s="4">
-        <v>0</v>
-      </c>
-      <c r="G11" s="3">
-        <v>1</v>
-      </c>
-      <c r="H11" s="3">
-        <v>0</v>
-      </c>
-      <c r="I11" s="3">
-        <v>0</v>
-      </c>
-      <c r="J11" s="3">
-        <v>1</v>
-      </c>
-      <c r="K11" s="11">
-        <v>150</v>
-      </c>
-      <c r="L11" s="12">
-        <v>150</v>
-      </c>
-      <c r="M11" s="6" t="s">
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L11" s="8">
+        <v>0</v>
+      </c>
+      <c r="M11" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>9</v>
       </c>
-      <c r="B12" s="4">
-        <v>0</v>
-      </c>
-      <c r="C12" s="4">
-        <v>0</v>
-      </c>
-      <c r="D12" s="4">
-        <v>1</v>
-      </c>
-      <c r="E12" s="4">
-        <v>1</v>
-      </c>
-      <c r="F12" s="4">
-        <v>1</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
-      <c r="H12" s="3">
-        <v>1</v>
-      </c>
-      <c r="I12" s="3">
-        <v>1</v>
-      </c>
-      <c r="J12" s="3">
-        <v>0</v>
-      </c>
-      <c r="K12" s="11">
-        <v>150</v>
-      </c>
-      <c r="L12" s="12">
-        <v>150</v>
-      </c>
-      <c r="M12" s="6" t="s">
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="7">
+        <v>0</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="M12" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>10</v>
       </c>
-      <c r="B13" s="4">
-        <v>1</v>
-      </c>
-      <c r="C13" s="4">
-        <v>1</v>
-      </c>
-      <c r="D13" s="4">
-        <v>1</v>
-      </c>
-      <c r="E13" s="4">
-        <v>1</v>
-      </c>
-      <c r="F13" s="4">
-        <v>0</v>
-      </c>
-      <c r="G13" s="3">
-        <v>1</v>
-      </c>
-      <c r="H13" s="3">
-        <v>0</v>
-      </c>
-      <c r="I13" s="3">
-        <v>0</v>
-      </c>
-      <c r="J13" s="3">
-        <v>1</v>
-      </c>
-      <c r="K13" s="11">
-        <v>150</v>
-      </c>
-      <c r="L13" s="12">
-        <v>150</v>
-      </c>
-      <c r="M13" s="6" t="s">
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L13" s="8">
+        <v>0</v>
+      </c>
+      <c r="M13" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>11</v>
       </c>
-      <c r="B14" s="4">
-        <v>0</v>
-      </c>
-      <c r="C14" s="4">
-        <v>1</v>
-      </c>
-      <c r="D14" s="4">
-        <v>1</v>
-      </c>
-      <c r="E14" s="4">
-        <v>1</v>
-      </c>
-      <c r="F14" s="4">
-        <v>1</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>1</v>
-      </c>
-      <c r="I14" s="3">
-        <v>1</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="11">
-        <v>150</v>
-      </c>
-      <c r="L14" s="12">
-        <v>150</v>
-      </c>
-      <c r="M14" s="6" t="s">
+      <c r="B14" s="2">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="7">
+        <v>0</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="M14" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>12</v>
       </c>
-      <c r="B15" s="4">
-        <v>1</v>
-      </c>
-      <c r="C15" s="4">
-        <v>1</v>
-      </c>
-      <c r="D15" s="4">
-        <v>0</v>
-      </c>
-      <c r="E15" s="4">
-        <v>0</v>
-      </c>
-      <c r="F15" s="4">
-        <v>1</v>
-      </c>
-      <c r="G15" s="3">
-        <v>1</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>1</v>
-      </c>
-      <c r="K15" s="11">
-        <v>150</v>
-      </c>
-      <c r="L15" s="12">
-        <v>150</v>
-      </c>
-      <c r="M15" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="M15" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>13</v>
       </c>
-      <c r="B16" s="4">
-        <v>1</v>
-      </c>
-      <c r="C16" s="4">
-        <v>0</v>
-      </c>
-      <c r="D16" s="4">
-        <v>0</v>
-      </c>
-      <c r="E16" s="4">
-        <v>1</v>
-      </c>
-      <c r="F16" s="4">
-        <v>1</v>
-      </c>
-      <c r="G16" s="3">
-        <v>0</v>
-      </c>
-      <c r="H16" s="3">
-        <v>1</v>
-      </c>
-      <c r="I16" s="3">
-        <v>1</v>
-      </c>
-      <c r="J16" s="3">
-        <v>0</v>
-      </c>
-      <c r="K16" s="11">
-        <v>150</v>
-      </c>
-      <c r="L16" s="12">
-        <v>150</v>
-      </c>
-      <c r="M16" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="M16" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>14</v>
       </c>
-      <c r="B17" s="4">
-        <v>1</v>
-      </c>
-      <c r="C17" s="4">
-        <v>0</v>
-      </c>
-      <c r="D17" s="4">
-        <v>0</v>
-      </c>
-      <c r="E17" s="4">
-        <v>0</v>
-      </c>
-      <c r="F17" s="4">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1</v>
-      </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3">
-        <v>1</v>
-      </c>
-      <c r="K17" s="11">
-        <v>150</v>
-      </c>
-      <c r="L17" s="12">
-        <v>150</v>
-      </c>
-      <c r="M17" s="6" t="s">
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L17" s="8">
+        <v>0</v>
+      </c>
+      <c r="M17" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>15</v>
       </c>
-      <c r="B18" s="4">
-        <v>0</v>
-      </c>
-      <c r="C18" s="4">
-        <v>0</v>
-      </c>
-      <c r="D18" s="4">
-        <v>0</v>
-      </c>
-      <c r="E18" s="4">
-        <v>0</v>
-      </c>
-      <c r="F18" s="4">
-        <v>1</v>
-      </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3">
-        <v>1</v>
-      </c>
-      <c r="I18" s="3">
-        <v>1</v>
-      </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18" s="11">
-        <v>150</v>
-      </c>
-      <c r="L18" s="12">
-        <v>150</v>
-      </c>
-      <c r="M18" s="6" t="s">
+      <c r="B18" s="2">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+      <c r="K18" s="7">
+        <v>0</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="M18" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>16</v>
       </c>
-      <c r="B19" s="4">
-        <v>1</v>
-      </c>
-      <c r="C19" s="4">
-        <v>1</v>
-      </c>
-      <c r="D19" s="4">
-        <v>0</v>
-      </c>
-      <c r="E19" s="4">
-        <v>1</v>
-      </c>
-      <c r="F19" s="4">
-        <v>0</v>
-      </c>
-      <c r="G19" s="3">
-        <v>1</v>
-      </c>
-      <c r="H19" s="3">
-        <v>0</v>
-      </c>
-      <c r="I19" s="3">
-        <v>0</v>
-      </c>
-      <c r="J19" s="3">
-        <v>1</v>
-      </c>
-      <c r="K19" s="11">
-        <v>150</v>
-      </c>
-      <c r="L19" s="12">
-        <v>150</v>
-      </c>
-      <c r="M19" s="6" t="s">
+      <c r="B19" s="2">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1">
+        <v>1</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L19" s="8">
+        <v>0</v>
+      </c>
+      <c r="M19" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>17</v>
       </c>
-      <c r="B20" s="4">
-        <v>0</v>
-      </c>
-      <c r="C20" s="4">
-        <v>1</v>
-      </c>
-      <c r="D20" s="4">
-        <v>0</v>
-      </c>
-      <c r="E20" s="4">
-        <v>1</v>
-      </c>
-      <c r="F20" s="4">
-        <v>1</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>1</v>
-      </c>
-      <c r="I20" s="3">
-        <v>1</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="11">
-        <v>150</v>
-      </c>
-      <c r="L20" s="12">
-        <v>150</v>
-      </c>
-      <c r="M20" s="6" t="s">
+      <c r="B20" s="2">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" s="7">
+        <v>0</v>
+      </c>
+      <c r="L20" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="M20" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>18</v>
       </c>
-      <c r="B21" s="4">
-        <v>1</v>
-      </c>
-      <c r="C21" s="4">
-        <v>0</v>
-      </c>
-      <c r="D21" s="4">
-        <v>0</v>
-      </c>
-      <c r="E21" s="4">
-        <v>1</v>
-      </c>
-      <c r="F21" s="4">
-        <v>0</v>
-      </c>
-      <c r="G21" s="3">
-        <v>1</v>
-      </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
-      <c r="J21" s="3">
-        <v>1</v>
-      </c>
-      <c r="K21" s="11">
-        <v>150</v>
-      </c>
-      <c r="L21" s="12">
-        <v>150</v>
-      </c>
-      <c r="M21" s="6" t="s">
+      <c r="B21" s="2">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1">
+        <v>1</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L21" s="8">
+        <v>0</v>
+      </c>
+      <c r="M21" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>19</v>
       </c>
-      <c r="B22" s="4">
-        <v>0</v>
-      </c>
-      <c r="C22" s="4">
-        <v>1</v>
-      </c>
-      <c r="D22" s="4">
-        <v>0</v>
-      </c>
-      <c r="E22" s="4">
-        <v>0</v>
-      </c>
-      <c r="F22" s="4">
-        <v>1</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>1</v>
-      </c>
-      <c r="I22" s="3">
-        <v>1</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="11">
-        <v>150</v>
-      </c>
-      <c r="L22" s="12">
-        <v>150</v>
-      </c>
-      <c r="M22" s="6" t="s">
+      <c r="B22" s="2">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0</v>
+      </c>
+      <c r="K22" s="7">
+        <v>0</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="M22" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>20</v>
       </c>
-      <c r="B23" s="4">
-        <v>1</v>
-      </c>
-      <c r="C23" s="4">
-        <v>0</v>
-      </c>
-      <c r="D23" s="4">
-        <v>0</v>
-      </c>
-      <c r="E23" s="4">
-        <v>0</v>
-      </c>
-      <c r="F23" s="4">
-        <v>1</v>
-      </c>
-      <c r="G23" s="3">
-        <v>1</v>
-      </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
-      <c r="J23" s="3">
-        <v>1</v>
-      </c>
-      <c r="K23" s="11">
-        <v>150</v>
-      </c>
-      <c r="L23" s="12">
-        <v>100</v>
-      </c>
-      <c r="M23" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
+      <c r="B23" s="2">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1">
+        <v>1</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="M23" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>21</v>
       </c>
-      <c r="B24" s="4">
-        <v>1</v>
-      </c>
-      <c r="C24" s="4">
-        <v>0</v>
-      </c>
-      <c r="D24" s="4">
-        <v>1</v>
-      </c>
-      <c r="E24" s="4">
-        <v>0</v>
-      </c>
-      <c r="F24" s="4">
-        <v>1</v>
-      </c>
-      <c r="G24" s="3">
-        <v>1</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>1</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="11">
-        <v>95</v>
-      </c>
-      <c r="L24" s="12">
-        <v>95</v>
-      </c>
-      <c r="M24" s="6" t="s">
+      <c r="B24" s="2">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0</v>
+      </c>
+      <c r="F24" s="2">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
+        <v>1</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="M24" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>22</v>
       </c>
-      <c r="B25" s="4">
-        <v>0</v>
-      </c>
-      <c r="C25" s="4">
-        <v>0</v>
-      </c>
-      <c r="D25" s="4">
-        <v>1</v>
-      </c>
-      <c r="E25" s="4">
-        <v>0</v>
-      </c>
-      <c r="F25" s="4">
-        <v>1</v>
-      </c>
-      <c r="G25" s="3">
-        <v>0</v>
-      </c>
-      <c r="H25" s="3">
-        <v>1</v>
-      </c>
-      <c r="I25" s="3">
-        <v>1</v>
-      </c>
-      <c r="J25" s="3">
-        <v>0</v>
-      </c>
-      <c r="K25" s="11">
-        <v>150</v>
-      </c>
-      <c r="L25" s="12">
-        <v>150</v>
-      </c>
-      <c r="M25" s="6" t="s">
+      <c r="B25" s="2">
+        <v>0</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0</v>
+      </c>
+      <c r="F25" s="2">
+        <v>1</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1</v>
+      </c>
+      <c r="I25" s="1">
+        <v>1</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0</v>
+      </c>
+      <c r="K25" s="7">
+        <v>0</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="M25" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>23</v>
       </c>
-      <c r="B26" s="4">
-        <v>1</v>
-      </c>
-      <c r="C26" s="4">
-        <v>0</v>
-      </c>
-      <c r="D26" s="4">
-        <v>1</v>
-      </c>
-      <c r="E26" s="4">
-        <v>0</v>
-      </c>
-      <c r="F26" s="4">
-        <v>0</v>
-      </c>
-      <c r="G26" s="3">
-        <v>1</v>
-      </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
-      <c r="J26" s="3">
-        <v>1</v>
-      </c>
-      <c r="K26" s="11">
-        <v>150</v>
-      </c>
-      <c r="L26" s="12">
-        <v>150</v>
-      </c>
-      <c r="M26" s="6" t="s">
+      <c r="B26" s="2">
+        <v>1</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1">
+        <v>1</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L26" s="8">
+        <v>0</v>
+      </c>
+      <c r="M26" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>24</v>
       </c>
-      <c r="B27" s="4">
-        <v>0</v>
-      </c>
-      <c r="C27" s="4">
-        <v>1</v>
-      </c>
-      <c r="D27" s="4">
-        <v>0</v>
-      </c>
-      <c r="E27" s="4">
-        <v>0</v>
-      </c>
-      <c r="F27" s="4">
-        <v>0</v>
-      </c>
-      <c r="G27" s="3">
-        <v>1</v>
-      </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
-      <c r="J27" s="3">
-        <v>1</v>
-      </c>
-      <c r="K27" s="11">
-        <v>150</v>
-      </c>
-      <c r="L27" s="12">
-        <v>150</v>
-      </c>
-      <c r="M27" s="6" t="s">
+      <c r="B27" s="2">
+        <v>0</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0</v>
+      </c>
+      <c r="J27" s="1">
+        <v>1</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L27" s="8">
+        <v>0</v>
+      </c>
+      <c r="M27" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>25</v>
       </c>
-      <c r="B28" s="4">
-        <v>0</v>
-      </c>
-      <c r="C28" s="4">
-        <v>0</v>
-      </c>
-      <c r="D28" s="4">
-        <v>0</v>
-      </c>
-      <c r="E28" s="4">
-        <v>1</v>
-      </c>
-      <c r="F28" s="4">
-        <v>0</v>
-      </c>
-      <c r="G28" s="3">
-        <v>0</v>
-      </c>
-      <c r="H28" s="3">
-        <v>1</v>
-      </c>
-      <c r="I28" s="3">
-        <v>1</v>
-      </c>
-      <c r="J28" s="3">
-        <v>0</v>
-      </c>
-      <c r="K28" s="11">
-        <v>150</v>
-      </c>
-      <c r="L28" s="12">
-        <v>150</v>
-      </c>
-      <c r="M28" s="6" t="s">
+      <c r="B28" s="2">
+        <v>0</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0</v>
+      </c>
+      <c r="E28" s="2">
+        <v>1</v>
+      </c>
+      <c r="F28" s="2">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1">
+        <v>1</v>
+      </c>
+      <c r="I28" s="1">
+        <v>1</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0</v>
+      </c>
+      <c r="K28" s="7">
+        <v>0</v>
+      </c>
+      <c r="L28" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="M28" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>26</v>
       </c>
-      <c r="B29" s="4">
-        <v>0</v>
-      </c>
-      <c r="C29" s="4">
-        <v>0</v>
-      </c>
-      <c r="D29" s="4">
-        <v>1</v>
-      </c>
-      <c r="E29" s="4">
-        <v>0</v>
-      </c>
-      <c r="F29" s="4">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
+      <c r="B29" s="2">
+        <v>0</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1">
         <v>0</v>
       </c>
       <c r="H29" s="1">
@@ -1855,58 +2085,60 @@
       <c r="J29" s="1">
         <v>1</v>
       </c>
-      <c r="K29" s="11">
-        <v>150</v>
-      </c>
-      <c r="L29" s="12">
-        <v>100</v>
-      </c>
-      <c r="M29" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="N29" s="6"/>
-      <c r="O29" s="6"/>
-      <c r="P29" s="6"/>
+      <c r="K29" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L29" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="M29" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>27</v>
       </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
+      <c r="B30" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="24"/>
+      <c r="O30" s="24"/>
+      <c r="P30" s="24"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>28</v>
       </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="24"/>
+      <c r="N31" s="24"/>
+      <c r="O31" s="24"/>
+      <c r="P31" s="24"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
@@ -2485,23 +2717,25 @@
       <c r="L67" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="39">
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="M1:P3"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:H2"/>
-    <mergeCell ref="I1:J2"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="M30:P30"/>
+  <mergeCells count="44">
+    <mergeCell ref="B30:P31"/>
+    <mergeCell ref="Q1:Q3"/>
+    <mergeCell ref="R1:S3"/>
+    <mergeCell ref="T1:T3"/>
+    <mergeCell ref="U1:V3"/>
+    <mergeCell ref="W1:W3"/>
+    <mergeCell ref="M12:P12"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="M5:P5"/>
+    <mergeCell ref="M6:P6"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="M10:P10"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="K5:L5"/>
     <mergeCell ref="M24:P24"/>
     <mergeCell ref="M13:P13"/>
     <mergeCell ref="M14:P14"/>
@@ -2514,17 +2748,20 @@
     <mergeCell ref="M21:P21"/>
     <mergeCell ref="M22:P22"/>
     <mergeCell ref="M23:P23"/>
-    <mergeCell ref="M12:P12"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="M4:P4"/>
-    <mergeCell ref="M5:P5"/>
-    <mergeCell ref="M6:P6"/>
-    <mergeCell ref="M7:P7"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="M10:P10"/>
-    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="M1:P3"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:H2"/>
+    <mergeCell ref="I1:J2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions headings="1" gridLines="1"/>
